--- a/Repositorio Agricultura/Para power bi/DIRECTORIO_AGROINDUSTRIA-2020.xlsx
+++ b/Repositorio Agricultura/Para power bi/DIRECTORIO_AGROINDUSTRIA-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claudia\Dropbox\Diseño DATA's\DATA-AGRO\Repositorio Agricultura\Para power bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E95DB8CD-BCCD-43B8-ADE8-B4DEA1EA0345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED33730F-FEF4-40D6-A9FB-D1E20655D8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4DC39C98-F360-46AB-87A9-B2F027CC5C3D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4DC39C98-F360-46AB-87A9-B2F027CC5C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Portada" sheetId="31" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId7"/>
-    <pivotCache cacheId="2" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2692,33 +2695,6 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2737,6 +2713,33 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2750,79 +2753,7 @@
     <cellStyle name="Normal_indice" xfId="3" xr:uid="{B5690E5E-A76A-4BBF-802D-BB3309AC66CE}"/>
     <cellStyle name="Porcentual_Productos Sice" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b val="0"/>
@@ -24248,7 +24179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4132FC5D-7216-44AA-8206-35BEA8CD6A16}" name="TablaDinámica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4132FC5D-7216-44AA-8206-35BEA8CD6A16}" name="TablaDinámica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A7:K208" firstHeaderRow="2" firstDataRow="2" firstDataCol="5" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -26165,7 +26096,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6651EEF7-39D3-43CE-A7E8-87B9A881E609}" name="TablaDinámica8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6651EEF7-39D3-43CE-A7E8-87B9A881E609}" name="TablaDinámica8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A7:L18" firstHeaderRow="2" firstDataRow="2" firstDataCol="6" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -27124,13 +27055,13 @@
     <pageField fld="5" hier="-1"/>
   </pageFields>
   <formats count="3">
-    <format dxfId="5">
+    <format dxfId="2">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="1"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="2"/>
     </format>
   </formats>
@@ -27147,7 +27078,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{163803B7-E770-4A27-8879-68C2E8D308E1}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{163803B7-E770-4A27-8879-68C2E8D308E1}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:E595" firstHeaderRow="1" firstDataRow="1" firstDataCol="5"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
@@ -29956,7 +29887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F02CDBA-79A5-46FB-9B86-922C4558F54C}">
   <dimension ref="A1:M131"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30587,12 +30520,12 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -30745,24 +30678,24 @@
       <c r="G38" s="4"/>
     </row>
     <row r="41" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="70" t="s">
+      <c r="A41" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="B41" s="70"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
     </row>
     <row r="42" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="70"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -30770,22 +30703,22 @@
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="62" t="s">
         <v>523</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="73"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="59" t="s">
         <v>467</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30809,13 +30742,13 @@
     </row>
     <row r="45" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
-      <c r="B45" s="63" t="s">
+      <c r="B45" s="66" t="s">
         <v>479</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="64"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="67"/>
       <c r="G45" s="53">
         <v>5</v>
       </c>
@@ -30828,13 +30761,13 @@
     </row>
     <row r="46" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="51"/>
-      <c r="B46" s="63" t="s">
+      <c r="B46" s="66" t="s">
         <v>521</v>
       </c>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="64"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="67"/>
       <c r="G46" s="53">
         <v>12</v>
       </c>
@@ -30847,13 +30780,13 @@
     </row>
     <row r="47" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="51"/>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="66" t="s">
         <v>522</v>
       </c>
-      <c r="C47" s="63"/>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="64"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="67"/>
       <c r="G47" s="53">
         <v>13</v>
       </c>
@@ -30866,13 +30799,13 @@
     </row>
     <row r="48" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="52"/>
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="73" t="s">
         <v>482</v>
       </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="73"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="74"/>
       <c r="G48" s="54">
         <v>15</v>
       </c>
@@ -30885,16 +30818,16 @@
       <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="68" t="s">
         <v>478</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
       <c r="I51" s="2"/>
       <c r="J51" s="18"/>
       <c r="K51" s="2"/>
@@ -30902,14 +30835,14 @@
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
       <c r="I52" s="2"/>
       <c r="J52" s="18"/>
       <c r="K52" s="2"/>
@@ -30940,28 +30873,28 @@
       <c r="G54" s="27"/>
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="71" t="s">
         <v>468</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="71"/>
+      <c r="D55" s="71"/>
+      <c r="E55" s="71"/>
+      <c r="F55" s="71"/>
+      <c r="G55" s="71"/>
+      <c r="H55" s="71"/>
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="71" t="s">
         <v>469</v>
       </c>
-      <c r="B56" s="65"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="65"/>
-      <c r="F56" s="65"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28"/>
@@ -30991,28 +30924,28 @@
       <c r="G59" s="27"/>
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="72" t="s">
         <v>470</v>
       </c>
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72"/>
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="71" t="s">
         <v>471</v>
       </c>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
@@ -31042,16 +30975,16 @@
       <c r="G64" s="27"/>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="68" t="s">
         <v>472</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="68"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="68"/>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
@@ -31150,13 +31083,13 @@
     <row r="83" spans="1:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:8" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="61"/>
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="69"/>
+      <c r="D85" s="69"/>
+      <c r="E85" s="69"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="69"/>
     </row>
     <row r="86" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
@@ -31497,13 +31430,13 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="62"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="62"/>
-      <c r="E123" s="62"/>
-      <c r="F123" s="62"/>
-      <c r="G123" s="62"/>
+      <c r="A123" s="70"/>
+      <c r="B123" s="70"/>
+      <c r="C123" s="70"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="70"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
@@ -31558,12 +31491,6 @@
     <row r="131" spans="4:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="A41:G42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B46:F46"/>
     <mergeCell ref="A65:H65"/>
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A123:G123"/>
@@ -31575,6 +31502,12 @@
     <mergeCell ref="A60:H60"/>
     <mergeCell ref="A61:H61"/>
     <mergeCell ref="B48:F48"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="A41:G42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B46:F46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" location="Directorio_proceso!A1" display="1" xr:uid="{13D1792E-E32F-4421-9445-4C25B493CA00}"/>
@@ -31596,7 +31529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFBD753-C8F6-460B-8173-22735B0D0EFE}">
   <dimension ref="A1:G208"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -34457,8 +34390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CEC8A9-8EC5-4EBB-A69D-E5406738ECF5}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView view="pageBreakPreview" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34679,20 +34612,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8074620-F3DC-414A-BD4D-AD124A50B462}">
   <dimension ref="A1:E595"/>
   <sheetViews>
-    <sheetView topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="B579" activeCellId="11" sqref="B4:B7 B9:B16 B18:B26 B28:B36 B38:B148 B150:B274 B276:B326 B328:B495 B497:B557 B559:B567 B569:B577 B579:B585 B587:B594"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="1" activeRow="578" activeCol="1" previousRow="578" previousCol="1" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -38826,7 +38752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED3552A-16D1-4F89-9B28-4049ABF8DAD2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -38843,7 +38769,9 @@
   </sheetPr>
   <dimension ref="A1:N605"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="E1" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
